--- a/jour10.xlsx
+++ b/jour10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
   <si>
     <t>Points dom</t>
   </si>
@@ -40,124 +40,112 @@
     <t>Points exté</t>
   </si>
   <si>
-    <t>["N'Diaye", 'Hamouma', 'Alphonse']</t>
-  </si>
-  <si>
-    <t>['Serrano', 'Sibide', 'Serrano']</t>
-  </si>
-  <si>
-    <t>['Ganago', 'Mollet', 'Simon']</t>
-  </si>
-  <si>
-    <t>['Savanier', 'Savanier']</t>
-  </si>
-  <si>
-    <t>['Messi', 'Mendes']</t>
-  </si>
-  <si>
-    <t>['Le_Goff', 'Le_Fee', 'Matsima']</t>
-  </si>
-  <si>
-    <t>['Rodon']</t>
-  </si>
-  <si>
-    <t>['Cabella', 'Martin', 'Fonte', 'Cabella']</t>
-  </si>
-  <si>
-    <t>['Balerdi', 'Clauss', 'Clauss']</t>
-  </si>
-  <si>
-    <t>['Lienard']</t>
+    <t>['Da_Costa', 'Dembele', 'Autret']</t>
+  </si>
+  <si>
+    <t>['Lebas', 'Michelin', "N'Diaye"]</t>
+  </si>
+  <si>
+    <t>['Palaversa', 'Porozo', 'Salmier']</t>
+  </si>
+  <si>
+    <t>['Maurer', 'Cisse']</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>['Verrati']</t>
+  </si>
+  <si>
+    <t>['Mothiba', 'Delaine']</t>
+  </si>
+  <si>
+    <t>['Jakobs']</t>
+  </si>
+  <si>
+    <t>['Rongier']</t>
+  </si>
+  <si>
+    <t>['Brahimi', 'Diop']</t>
+  </si>
+  <si>
+    <t>Auxerre</t>
   </si>
   <si>
     <t>Ajaccio</t>
   </si>
   <si>
+    <t>Troyes</t>
+  </si>
+  <si>
+    <t>Clermont</t>
+  </si>
+  <si>
+    <t>OL</t>
+  </si>
+  <si>
+    <t>PSG</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
     <t>AS Monaco</t>
   </si>
   <si>
+    <t>OM</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>Reims</t>
+  </si>
+  <si>
+    <t>Angers</t>
+  </si>
+  <si>
+    <t>Lorient</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
     <t>Nantes</t>
   </si>
   <si>
     <t>Montpellier</t>
   </si>
   <si>
-    <t>PSG</t>
-  </si>
-  <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>Rennes</t>
-  </si>
-  <si>
-    <t>Lille</t>
-  </si>
-  <si>
-    <t>OM</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>Angers</t>
-  </si>
-  <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>OL</t>
-  </si>
-  <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>Troyes</t>
-  </si>
-  <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>['Pellenard', 'Jeanvier']</t>
-  </si>
-  <si>
-    <t>['Bryan']</t>
-  </si>
-  <si>
-    <t>['Mounie', 'Le_Douaron']</t>
-  </si>
-  <si>
-    <t>['Mendy', 'Masson']</t>
-  </si>
-  <si>
-    <t>['ChaÃ¯bi', 'ChaÃ¯bi', 'Desler']</t>
-  </si>
-  <si>
-    <t>['Moalida', 'Ito']</t>
-  </si>
-  <si>
-    <t>['Tagliafico', 'Lega', 'Sanchez']</t>
-  </si>
-  <si>
-    <t>['Sylla', 'Fortes']</t>
-  </si>
-  <si>
-    <t>['Salmier', 'Chavalerin']</t>
-  </si>
-  <si>
-    <t>['Borges']</t>
+    <t>['Yoro', 'Burlet']</t>
+  </si>
+  <si>
+    <t>['Terrier', 'Kalimuendo']</t>
+  </si>
+  <si>
+    <t>['Brassier']</t>
+  </si>
+  <si>
+    <t>['Ito', 'Serhuis', 'Serhuis']</t>
+  </si>
+  <si>
+    <t>['Kroupi']</t>
+  </si>
+  <si>
+    <t>['Mavididi', 'Germain']</t>
   </si>
 </sst>
 </file>
@@ -564,16 +552,16 @@
         <v>3</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G2" t="s">
         <v>28</v>
       </c>
       <c r="H2" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -593,16 +581,16 @@
         <v>3</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3" t="s">
         <v>29</v>
       </c>
       <c r="H3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -628,7 +616,7 @@
         <v>30</v>
       </c>
       <c r="H4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I4">
         <v>2</v>
@@ -651,16 +639,16 @@
         <v>2</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G5" t="s">
         <v>31</v>
       </c>
       <c r="H5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -668,7 +656,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
@@ -677,7 +665,7 @@
         <v>22</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>3</v>
@@ -686,7 +674,7 @@
         <v>32</v>
       </c>
       <c r="H6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I6">
         <v>3</v>
@@ -697,7 +685,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
@@ -706,19 +694,19 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G7" t="s">
         <v>33</v>
       </c>
       <c r="H7" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -726,7 +714,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
@@ -735,19 +723,19 @@
         <v>24</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G8" t="s">
         <v>34</v>
       </c>
       <c r="H8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I8">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -755,7 +743,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
@@ -764,19 +752,19 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G9" t="s">
         <v>35</v>
       </c>
       <c r="H9" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="I9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -784,7 +772,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C10" t="s">
         <v>16</v>
@@ -793,19 +781,19 @@
         <v>26</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G10" t="s">
         <v>36</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="I10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -813,7 +801,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11" t="s">
         <v>17</v>
@@ -822,19 +810,19 @@
         <v>27</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G11" t="s">
         <v>37</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/jour10.xlsx
+++ b/jour10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>Points dom</t>
   </si>
@@ -40,112 +40,124 @@
     <t>Points exté</t>
   </si>
   <si>
-    <t>['Da_Costa', 'Dembele', 'Autret']</t>
-  </si>
-  <si>
-    <t>['Lebas', 'Michelin', "N'Diaye"]</t>
-  </si>
-  <si>
-    <t>['Palaversa', 'Porozo', 'Salmier']</t>
-  </si>
-  <si>
-    <t>['Maurer', 'Cisse']</t>
-  </si>
-  <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>['Verrati']</t>
-  </si>
-  <si>
-    <t>['Mothiba', 'Delaine']</t>
-  </si>
-  <si>
-    <t>['Jakobs']</t>
-  </si>
-  <si>
-    <t>['Rongier']</t>
-  </si>
-  <si>
-    <t>['Brahimi', 'Diop']</t>
+    <t>['Hamouma']</t>
+  </si>
+  <si>
+    <t>['Kabore', 'Kabore']</t>
+  </si>
+  <si>
+    <t>['Tolisso', 'Sanchez']</t>
+  </si>
+  <si>
+    <t>['Porozo', 'Ugbo']</t>
+  </si>
+  <si>
+    <t>['Dejaegere']</t>
+  </si>
+  <si>
+    <t>['Simon', 'Girotto']</t>
+  </si>
+  <si>
+    <t>['Nordin', 'Nordin']</t>
+  </si>
+  <si>
+    <t>['Bellegarde']</t>
+  </si>
+  <si>
+    <t>['Ramos', 'Mendes']</t>
+  </si>
+  <si>
+    <t>['Medina']</t>
+  </si>
+  <si>
+    <t>Ajaccio</t>
+  </si>
+  <si>
+    <t>OM</t>
+  </si>
+  <si>
+    <t>OL</t>
+  </si>
+  <si>
+    <t>Troyes</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>PSG</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>Clermont</t>
+  </si>
+  <si>
+    <t>Reims</t>
   </si>
   <si>
     <t>Auxerre</t>
   </si>
   <si>
-    <t>Ajaccio</t>
-  </si>
-  <si>
-    <t>Troyes</t>
-  </si>
-  <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>OL</t>
-  </si>
-  <si>
-    <t>PSG</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
+    <t>Angers</t>
+  </si>
+  <si>
+    <t>Lorient</t>
+  </si>
+  <si>
+    <t>Brest</t>
   </si>
   <si>
     <t>AS Monaco</t>
   </si>
   <si>
-    <t>OM</t>
-  </si>
-  <si>
     <t>Nice</t>
   </si>
   <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>Lille</t>
-  </si>
-  <si>
-    <t>Rennes</t>
-  </si>
-  <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>Angers</t>
-  </si>
-  <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>['Yoro', 'Burlet']</t>
-  </si>
-  <si>
-    <t>['Terrier', 'Kalimuendo']</t>
-  </si>
-  <si>
-    <t>['Brassier']</t>
-  </si>
-  <si>
-    <t>['Ito', 'Serhuis', 'Serhuis']</t>
-  </si>
-  <si>
-    <t>['Kroupi']</t>
-  </si>
-  <si>
-    <t>['Mavididi', 'Germain']</t>
+    <t>['David']</t>
+  </si>
+  <si>
+    <t>['Gouiri', 'Santamaria']</t>
+  </si>
+  <si>
+    <t>['Maurer', 'Bayo']</t>
+  </si>
+  <si>
+    <t>['Munetsi', 'Ito', 'Cajuste']</t>
+  </si>
+  <si>
+    <t>['Da_Costa']</t>
+  </si>
+  <si>
+    <t>['Alioui', 'Mendy', 'Alioui', 'Doumbia']</t>
+  </si>
+  <si>
+    <t>['Le_Goff', 'Ponceau', 'Laporte']</t>
+  </si>
+  <si>
+    <t>['Chardonnet']</t>
+  </si>
+  <si>
+    <t>['Jakobs', 'Pele']</t>
+  </si>
+  <si>
+    <t>['Laborde']</t>
   </si>
 </sst>
 </file>
@@ -540,7 +552,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -549,19 +561,19 @@
         <v>18</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" t="s">
         <v>28</v>
       </c>
       <c r="H2" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -569,7 +581,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -578,7 +590,7 @@
         <v>19</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -587,7 +599,7 @@
         <v>29</v>
       </c>
       <c r="H3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I3">
         <v>2</v>
@@ -598,7 +610,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
@@ -607,7 +619,7 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>2</v>
@@ -616,7 +628,7 @@
         <v>30</v>
       </c>
       <c r="H4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I4">
         <v>2</v>
@@ -639,16 +651,16 @@
         <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G5" t="s">
         <v>31</v>
       </c>
       <c r="H5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -656,7 +668,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
@@ -665,19 +677,19 @@
         <v>22</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G6" t="s">
         <v>32</v>
       </c>
       <c r="H6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I6">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -685,7 +697,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
@@ -694,19 +706,19 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G7" t="s">
         <v>33</v>
       </c>
       <c r="H7" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -726,16 +738,16 @@
         <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G8" t="s">
         <v>34</v>
       </c>
       <c r="H8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -755,16 +767,16 @@
         <v>1</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" t="s">
         <v>35</v>
       </c>
       <c r="H9" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -772,7 +784,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C10" t="s">
         <v>16</v>
@@ -781,19 +793,19 @@
         <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G10" t="s">
         <v>36</v>
       </c>
       <c r="H10" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -801,7 +813,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11" t="s">
         <v>17</v>
@@ -810,19 +822,19 @@
         <v>27</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G11" t="s">
         <v>37</v>
       </c>
       <c r="H11" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="I11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/jour10.xlsx
+++ b/jour10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
   <si>
     <t>Points dom</t>
   </si>
@@ -40,124 +40,121 @@
     <t>Points exté</t>
   </si>
   <si>
-    <t>['Hamouma']</t>
-  </si>
-  <si>
-    <t>['Kabore', 'Kabore']</t>
-  </si>
-  <si>
-    <t>['Tolisso', 'Sanchez']</t>
-  </si>
-  <si>
-    <t>['Porozo', 'Ugbo']</t>
-  </si>
-  <si>
-    <t>['Dejaegere']</t>
-  </si>
-  <si>
-    <t>['Simon', 'Girotto']</t>
-  </si>
-  <si>
-    <t>['Nordin', 'Nordin']</t>
-  </si>
-  <si>
-    <t>['Bellegarde']</t>
-  </si>
-  <si>
-    <t>['Ramos', 'Mendes']</t>
-  </si>
-  <si>
-    <t>['Medina']</t>
+    <t>['Pepe', 'Beka', 'Beka']</t>
+  </si>
+  <si>
+    <t>['Theate', 'Kalimuendo']</t>
+  </si>
+  <si>
+    <t>['Khazri', 'Sakho']</t>
+  </si>
+  <si>
+    <t>['Delort', 'Coco']</t>
+  </si>
+  <si>
+    <t>['Lemarechal', 'Tavares']</t>
+  </si>
+  <si>
+    <t>['Sylla', 'Pereira']</t>
+  </si>
+  <si>
+    <t>['Jakobs', 'Henrique']</t>
+  </si>
+  <si>
+    <t>['Caqueret', 'Tolisso']</t>
+  </si>
+  <si>
+    <t>['Matsima']</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>AS Monaco</t>
+  </si>
+  <si>
+    <t>OL</t>
+  </si>
+  <si>
+    <t>Lorient</t>
+  </si>
+  <si>
+    <t>Auxerre</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
   </si>
   <si>
     <t>Ajaccio</t>
   </si>
   <si>
+    <t>Lille</t>
+  </si>
+  <si>
     <t>OM</t>
   </si>
   <si>
-    <t>OL</t>
-  </si>
-  <si>
     <t>Troyes</t>
   </si>
   <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
     <t>PSG</t>
   </si>
   <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>Lille</t>
-  </si>
-  <si>
-    <t>Rennes</t>
-  </si>
-  <si>
     <t>Clermont</t>
   </si>
   <si>
+    <t>Angers</t>
+  </si>
+  <si>
     <t>Reims</t>
   </si>
   <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
-    <t>Angers</t>
-  </si>
-  <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>AS Monaco</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>['David']</t>
-  </si>
-  <si>
-    <t>['Gouiri', 'Santamaria']</t>
-  </si>
-  <si>
-    <t>['Maurer', 'Bayo']</t>
-  </si>
-  <si>
-    <t>['Munetsi', 'Ito', 'Cajuste']</t>
-  </si>
-  <si>
-    <t>['Da_Costa']</t>
-  </si>
-  <si>
-    <t>['Alioui', 'Mendy', 'Alioui', 'Doumbia']</t>
-  </si>
-  <si>
-    <t>['Le_Goff', 'Ponceau', 'Laporte']</t>
-  </si>
-  <si>
-    <t>['Chardonnet']</t>
-  </si>
-  <si>
-    <t>['Jakobs', 'Pele']</t>
-  </si>
-  <si>
-    <t>['Laborde']</t>
+    <t>['Perrin', 'Delaine']</t>
+  </si>
+  <si>
+    <t>['Desler']</t>
+  </si>
+  <si>
+    <t>["N'Diaye", "N'Diaye", 'Michelin', 'Silla']</t>
+  </si>
+  <si>
+    <t>['Burlet', 'Andre', 'Andre', 'Gomes']</t>
+  </si>
+  <si>
+    <t>['Payet']</t>
+  </si>
+  <si>
+    <t>['Conte', 'Porozo', 'Salmier', 'Ripart']</t>
+  </si>
+  <si>
+    <t>['Mendes']</t>
+  </si>
+  <si>
+    <t>['Masson', 'Camara']</t>
+  </si>
+  <si>
+    <t>['Lopy', 'Moalida', 'Moalida']</t>
   </si>
 </sst>
 </file>
@@ -549,10 +546,10 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -561,10 +558,10 @@
         <v>18</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G2" t="s">
         <v>28</v>
@@ -573,7 +570,7 @@
         <v>38</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -593,7 +590,7 @@
         <v>2</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3" t="s">
         <v>29</v>
@@ -602,7 +599,7 @@
         <v>39</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -622,7 +619,7 @@
         <v>2</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G4" t="s">
         <v>30</v>
@@ -631,12 +628,12 @@
         <v>40</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -651,7 +648,7 @@
         <v>2</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G5" t="s">
         <v>31</v>
@@ -660,15 +657,15 @@
         <v>41</v>
       </c>
       <c r="I5">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
@@ -677,7 +674,7 @@
         <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -694,7 +691,7 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -723,7 +720,7 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>2</v>
@@ -738,7 +735,7 @@
         <v>2</v>
       </c>
       <c r="F8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G8" t="s">
         <v>34</v>
@@ -747,15 +744,15 @@
         <v>44</v>
       </c>
       <c r="I8">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
@@ -764,19 +761,19 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" t="s">
         <v>35</v>
       </c>
       <c r="H9" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -784,7 +781,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C10" t="s">
         <v>16</v>
@@ -793,7 +790,7 @@
         <v>26</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10">
         <v>2</v>
@@ -802,7 +799,7 @@
         <v>36</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I10">
         <v>2</v>
@@ -810,10 +807,10 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="s">
         <v>17</v>
@@ -822,19 +819,19 @@
         <v>27</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G11" t="s">
         <v>37</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/jour10.xlsx
+++ b/jour10.xlsx
@@ -40,121 +40,121 @@
     <t>Points exté</t>
   </si>
   <si>
-    <t>['Pepe', 'Beka', 'Beka']</t>
-  </si>
-  <si>
-    <t>['Theate', 'Kalimuendo']</t>
-  </si>
-  <si>
-    <t>['Khazri', 'Sakho']</t>
-  </si>
-  <si>
-    <t>['Delort', 'Coco']</t>
-  </si>
-  <si>
-    <t>['Lemarechal', 'Tavares']</t>
-  </si>
-  <si>
-    <t>['Sylla', 'Pereira']</t>
-  </si>
-  <si>
-    <t>['Jakobs', 'Henrique']</t>
-  </si>
-  <si>
-    <t>['Caqueret', 'Tolisso']</t>
-  </si>
-  <si>
-    <t>['Matsima']</t>
+    <t>['Munetsi', 'Moalida', 'Moalida', 'Balogin', 'Serhuis']</t>
+  </si>
+  <si>
+    <t>['Tagliafico', 'Gusto', 'Sanchez', 'Sanchez']</t>
+  </si>
+  <si>
+    <t>['Camara', 'Mendy', 'Sima']</t>
+  </si>
+  <si>
+    <t>['Perrin', 'Mothiba', 'Perrin']</t>
+  </si>
+  <si>
+    <t>['Le_Fee', 'Le_Goff']</t>
+  </si>
+  <si>
+    <t>['Sanches']</t>
+  </si>
+  <si>
+    <t>['Danois', 'Pellenard']</t>
+  </si>
+  <si>
+    <t>['Aboukhlal', 'Dejaegere']</t>
   </si>
   <si>
     <t>[]</t>
   </si>
   <si>
+    <t>Reims</t>
+  </si>
+  <si>
+    <t>OL</t>
+  </si>
+  <si>
+    <t>Angers</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>Lorient</t>
+  </si>
+  <si>
+    <t>PSG</t>
+  </si>
+  <si>
+    <t>Auxerre</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>Troyes</t>
+  </si>
+  <si>
+    <t>OM</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>Ajaccio</t>
+  </si>
+  <si>
+    <t>Clermont</t>
+  </si>
+  <si>
+    <t>AS Monaco</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>Brest</t>
+  </si>
+  <si>
     <t>Nice</t>
   </si>
   <si>
-    <t>Rennes</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>AS Monaco</t>
-  </si>
-  <si>
-    <t>OL</t>
-  </si>
-  <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>Ajaccio</t>
-  </si>
-  <si>
-    <t>Lille</t>
-  </si>
-  <si>
-    <t>OM</t>
-  </si>
-  <si>
-    <t>Troyes</t>
-  </si>
-  <si>
-    <t>PSG</t>
-  </si>
-  <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>Angers</t>
-  </si>
-  <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>['Perrin', 'Delaine']</t>
-  </si>
-  <si>
-    <t>['Desler']</t>
-  </si>
-  <si>
-    <t>["N'Diaye", "N'Diaye", 'Michelin', 'Silla']</t>
-  </si>
-  <si>
-    <t>['Burlet', 'Andre', 'Andre', 'Gomes']</t>
-  </si>
-  <si>
-    <t>['Payet']</t>
-  </si>
-  <si>
-    <t>['Conte', 'Porozo', 'Salmier', 'Ripart']</t>
-  </si>
-  <si>
-    <t>['Mendes']</t>
-  </si>
-  <si>
-    <t>['Masson', 'Camara']</t>
-  </si>
-  <si>
-    <t>['Lopy', 'Moalida', 'Moalida']</t>
+    <t>['Kabore', 'Bailly']</t>
+  </si>
+  <si>
+    <t>['Terrier', 'Majer']</t>
+  </si>
+  <si>
+    <t>['Hamouma']</t>
+  </si>
+  <si>
+    <t>['Rajot', 'Gastien', 'Borges']</t>
+  </si>
+  <si>
+    <t>['Embolo', 'Maripan']</t>
+  </si>
+  <si>
+    <t>['Khazri']</t>
+  </si>
+  <si>
+    <t>['Blas', 'Delort', 'Girotto', 'Simon']</t>
+  </si>
+  <si>
+    <t>['Ribeiro', 'Ribeiro', 'Gomes', 'Burlet']</t>
+  </si>
+  <si>
+    <t>['Le_Douaron', 'Mounie']</t>
+  </si>
+  <si>
+    <t>['Brahimi', 'Bryan']</t>
   </si>
 </sst>
 </file>
@@ -546,7 +546,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2">
         <v>3</v>
@@ -555,135 +555,135 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F2">
         <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I4">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I5">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -691,60 +691,60 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I7">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -752,80 +752,80 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>2</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H9" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="s">
         <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10">
         <v>2</v>
       </c>
       <c r="G10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H10" t="s">
         <v>45</v>
       </c>
       <c r="I10">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H11" t="s">
         <v>46</v>

--- a/jour10.xlsx
+++ b/jour10.xlsx
@@ -40,121 +40,121 @@
     <t>Points exté</t>
   </si>
   <si>
-    <t>['Pepe', 'Beka', 'Beka']</t>
-  </si>
-  <si>
-    <t>['Theate', 'Kalimuendo']</t>
-  </si>
-  <si>
-    <t>['Khazri', 'Sakho']</t>
-  </si>
-  <si>
-    <t>['Delort', 'Coco']</t>
-  </si>
-  <si>
-    <t>['Lemarechal', 'Tavares']</t>
-  </si>
-  <si>
-    <t>['Sylla', 'Pereira']</t>
-  </si>
-  <si>
-    <t>['Jakobs', 'Henrique']</t>
-  </si>
-  <si>
-    <t>['Caqueret', 'Tolisso']</t>
-  </si>
-  <si>
-    <t>['Matsima']</t>
+    <t>['Attal', 'Bryan', 'Moffi', 'Dante']</t>
+  </si>
+  <si>
+    <t>['Salmier', 'Ugbo', 'Palaversa']</t>
+  </si>
+  <si>
+    <t>['Pallois', 'Coco', 'Mollet']</t>
+  </si>
+  <si>
+    <t>['Mbappe', 'Ramos', 'Ruiz']</t>
+  </si>
+  <si>
+    <t>['H.Diallo']</t>
+  </si>
+  <si>
+    <t>['Cajuste', 'Munetsi']</t>
+  </si>
+  <si>
+    <t>['Cherki', 'Gusto']</t>
+  </si>
+  <si>
+    <t>['Ounahi', 'Gigot', 'Clauss']</t>
+  </si>
+  <si>
+    <t>['Dallinga', 'Healey']</t>
+  </si>
+  <si>
+    <t>['Danois']</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Troyes</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>PSG</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>Reims</t>
+  </si>
+  <si>
+    <t>OL</t>
+  </si>
+  <si>
+    <t>OM</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>Auxerre</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>Angers</t>
+  </si>
+  <si>
+    <t>Lorient</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>Clermont</t>
+  </si>
+  <si>
+    <t>AS Monaco</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>Ajaccio</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>['Sainte-Luce', 'Nordin']</t>
+  </si>
+  <si>
+    <t>['Bamba']</t>
   </si>
   <si>
     <t>[]</t>
   </si>
   <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>Rennes</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>AS Monaco</t>
-  </si>
-  <si>
-    <t>OL</t>
-  </si>
-  <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>Ajaccio</t>
-  </si>
-  <si>
-    <t>Lille</t>
-  </si>
-  <si>
-    <t>OM</t>
-  </si>
-  <si>
-    <t>Troyes</t>
-  </si>
-  <si>
-    <t>PSG</t>
-  </si>
-  <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>Angers</t>
-  </si>
-  <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>['Perrin', 'Delaine']</t>
-  </si>
-  <si>
-    <t>['Desler']</t>
-  </si>
-  <si>
-    <t>["N'Diaye", "N'Diaye", 'Michelin', 'Silla']</t>
-  </si>
-  <si>
-    <t>['Burlet', 'Andre', 'Andre', 'Gomes']</t>
-  </si>
-  <si>
-    <t>['Payet']</t>
-  </si>
-  <si>
-    <t>['Conte', 'Porozo', 'Salmier', 'Ripart']</t>
-  </si>
-  <si>
-    <t>['Mendes']</t>
-  </si>
-  <si>
-    <t>['Masson', 'Camara']</t>
-  </si>
-  <si>
-    <t>['Lopy', 'Moalida', 'Moalida']</t>
+    <t>['Le_Cardinal', 'Medina']</t>
+  </si>
+  <si>
+    <t>['Bayo', 'Wieteska']</t>
+  </si>
+  <si>
+    <t>['Henrique', 'Henrique']</t>
+  </si>
+  <si>
+    <t>['Gouiri', 'Majer', 'Terrier', 'Gouiri']</t>
+  </si>
+  <si>
+    <t>['Roure', 'Roure', 'Hamouma', 'Vidal']</t>
+  </si>
+  <si>
+    <t>['Gudmundsson', 'David']</t>
   </si>
 </sst>
 </file>
@@ -558,7 +558,7 @@
         <v>18</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -570,15 +570,15 @@
         <v>38</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -587,7 +587,7 @@
         <v>19</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -599,15 +599,15 @@
         <v>39</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
@@ -616,10 +616,10 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G4" t="s">
         <v>30</v>
@@ -628,15 +628,15 @@
         <v>40</v>
       </c>
       <c r="I4">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -645,10 +645,10 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G5" t="s">
         <v>31</v>
@@ -657,15 +657,15 @@
         <v>41</v>
       </c>
       <c r="I5">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
@@ -674,19 +674,19 @@
         <v>22</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" t="s">
         <v>32</v>
       </c>
       <c r="H6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -694,7 +694,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
@@ -706,16 +706,16 @@
         <v>2</v>
       </c>
       <c r="F7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G7" t="s">
         <v>33</v>
       </c>
       <c r="H7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I7">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -723,7 +723,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
@@ -735,13 +735,13 @@
         <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G8" t="s">
         <v>34</v>
       </c>
       <c r="H8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -749,10 +749,10 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
@@ -761,27 +761,27 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G9" t="s">
         <v>35</v>
       </c>
       <c r="H9" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="s">
         <v>16</v>
@@ -790,10 +790,10 @@
         <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G10" t="s">
         <v>36</v>
@@ -802,7 +802,7 @@
         <v>45</v>
       </c>
       <c r="I10">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -819,10 +819,10 @@
         <v>27</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G11" t="s">
         <v>37</v>

--- a/jour10.xlsx
+++ b/jour10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>Points dom</t>
   </si>
@@ -40,121 +40,124 @@
     <t>Points exté</t>
   </si>
   <si>
-    <t>['Munetsi', 'Moalida', 'Moalida', 'Balogin', 'Serhuis']</t>
-  </si>
-  <si>
-    <t>['Tagliafico', 'Gusto', 'Sanchez', 'Sanchez']</t>
-  </si>
-  <si>
-    <t>['Camara', 'Mendy', 'Sima']</t>
-  </si>
-  <si>
-    <t>['Perrin', 'Mothiba', 'Perrin']</t>
-  </si>
-  <si>
-    <t>['Le_Fee', 'Le_Goff']</t>
-  </si>
-  <si>
-    <t>['Sanches']</t>
-  </si>
-  <si>
-    <t>['Danois', 'Pellenard']</t>
-  </si>
-  <si>
-    <t>['Aboukhlal', 'Dejaegere']</t>
-  </si>
-  <si>
-    <t>[]</t>
+    <t>['Mbappe', 'Verrati', 'Neymar']</t>
+  </si>
+  <si>
+    <t>['Ben_Seguir', 'Ben_Yedder', 'Aguilar']</t>
+  </si>
+  <si>
+    <t>['Dallinga', 'Dejaegere', 'Desler', 'Healey']</t>
+  </si>
+  <si>
+    <t>['Hamouma', 'Silla', "N'Diaye"]</t>
+  </si>
+  <si>
+    <t>['Balerdi', 'Ounahi', 'Lopez']</t>
+  </si>
+  <si>
+    <t>['Masson', 'Sima']</t>
+  </si>
+  <si>
+    <t>['Cabella', 'Gudmundsson']</t>
+  </si>
+  <si>
+    <t>['Djiku', 'Djiku']</t>
+  </si>
+  <si>
+    <t>['Sakho']</t>
+  </si>
+  <si>
+    <t>['Brahimi']</t>
+  </si>
+  <si>
+    <t>PSG</t>
+  </si>
+  <si>
+    <t>AS Monaco</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>Ajaccio</t>
+  </si>
+  <si>
+    <t>OM</t>
+  </si>
+  <si>
+    <t>Angers</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Clermont</t>
   </si>
   <si>
     <t>Reims</t>
   </si>
   <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
     <t>OL</t>
   </si>
   <si>
-    <t>Angers</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
     <t>Lorient</t>
   </si>
   <si>
-    <t>PSG</t>
-  </si>
-  <si>
     <t>Auxerre</t>
   </si>
   <si>
-    <t>Toulouse</t>
+    <t>Troyes</t>
+  </si>
+  <si>
+    <t>Brest</t>
   </si>
   <si>
     <t>Lens</t>
   </si>
   <si>
-    <t>Troyes</t>
-  </si>
-  <si>
-    <t>OM</t>
-  </si>
-  <si>
-    <t>Rennes</t>
-  </si>
-  <si>
-    <t>Ajaccio</t>
-  </si>
-  <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>AS Monaco</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>Lille</t>
-  </si>
-  <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>['Kabore', 'Bailly']</t>
-  </si>
-  <si>
-    <t>['Terrier', 'Majer']</t>
-  </si>
-  <si>
-    <t>['Hamouma']</t>
-  </si>
-  <si>
-    <t>['Rajot', 'Gastien', 'Borges']</t>
-  </si>
-  <si>
-    <t>['Embolo', 'Maripan']</t>
-  </si>
-  <si>
-    <t>['Khazri']</t>
-  </si>
-  <si>
-    <t>['Blas', 'Delort', 'Girotto', 'Simon']</t>
-  </si>
-  <si>
-    <t>['Ribeiro', 'Ribeiro', 'Gomes', 'Burlet']</t>
-  </si>
-  <si>
-    <t>['Le_Douaron', 'Mounie']</t>
-  </si>
-  <si>
-    <t>['Brahimi', 'Bryan']</t>
+    <t>['Massolin']</t>
+  </si>
+  <si>
+    <t>['Munetsi']</t>
+  </si>
+  <si>
+    <t>['Guessand', 'Mollet', 'Girotto', 'Delort']</t>
+  </si>
+  <si>
+    <t>['Theate', 'Gouiri', 'Gouiri']</t>
+  </si>
+  <si>
+    <t>['Cherki', 'Lepenant', 'Sanchez']</t>
+  </si>
+  <si>
+    <t>['Matsima', 'Laporte']</t>
+  </si>
+  <si>
+    <t>['Jeanvier', 'Bain']</t>
+  </si>
+  <si>
+    <t>['Balde', 'Salmier', 'Ripart']</t>
+  </si>
+  <si>
+    <t>['Chardonnet', 'Magnetti']</t>
+  </si>
+  <si>
+    <t>['Fortes', 'Medina', 'Gradit']</t>
   </si>
 </sst>
 </file>
@@ -546,7 +549,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>3</v>
@@ -555,19 +558,19 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -575,7 +578,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>3</v>
@@ -584,19 +587,19 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -604,36 +607,36 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -642,7 +645,7 @@
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -651,10 +654,10 @@
         <v>3</v>
       </c>
       <c r="G5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -662,7 +665,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -671,19 +674,19 @@
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -691,7 +694,7 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -700,19 +703,19 @@
         <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -720,36 +723,36 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E8">
         <v>2</v>
       </c>
       <c r="F8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I8">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -758,19 +761,19 @@
         <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E9">
         <v>2</v>
       </c>
       <c r="F9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I9">
         <v>3</v>
@@ -778,7 +781,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -787,19 +790,19 @@
         <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10">
         <v>2</v>
       </c>
       <c r="G10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I10">
         <v>3</v>
@@ -807,28 +810,28 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11">
         <v>3</v>

--- a/jour10.xlsx
+++ b/jour10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
   <si>
     <t>Points dom</t>
   </si>
@@ -40,118 +40,121 @@
     <t>Points exté</t>
   </si>
   <si>
-    <t>['Duverne', 'Del_Castillo']</t>
-  </si>
-  <si>
-    <t>['Bailly', 'Harit']</t>
-  </si>
-  <si>
-    <t>['Lipinski', 'Danois']</t>
-  </si>
-  <si>
-    <t>['Rajot', 'Wieteska']</t>
-  </si>
-  <si>
-    <t>['Aouar', 'Cherki']</t>
+    <t>['Aguilar', 'Pele', 'Jakobs']</t>
+  </si>
+  <si>
+    <t>['Talbi', 'Le_Goff']</t>
+  </si>
+  <si>
+    <t>['Lopez']</t>
+  </si>
+  <si>
+    <t>['Ruiz', 'Neymar', 'Verrati']</t>
+  </si>
+  <si>
+    <t>['Khazri', 'Khazri', 'Maouassa']</t>
+  </si>
+  <si>
+    <t>['David', 'Burlet']</t>
+  </si>
+  <si>
+    <t>['Kabore', 'Rongier']</t>
+  </si>
+  <si>
+    <t>['Alphonse', "N'Diaye"]</t>
+  </si>
+  <si>
+    <t>['Gusto']</t>
+  </si>
+  <si>
+    <t>['Mounie']</t>
+  </si>
+  <si>
+    <t>AS Monaco</t>
+  </si>
+  <si>
+    <t>Lorient</t>
+  </si>
+  <si>
+    <t>Troyes</t>
+  </si>
+  <si>
+    <t>PSG</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>OM</t>
+  </si>
+  <si>
+    <t>Ajaccio</t>
+  </si>
+  <si>
+    <t>OL</t>
+  </si>
+  <si>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>Angers</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>Reims</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>Clermont</t>
+  </si>
+  <si>
+    <t>Auxerre</t>
   </si>
   <si>
     <t>[]</t>
   </si>
   <si>
-    <t>['Traore', 'Assignon']</t>
-  </si>
-  <si>
-    <t>['Boura']</t>
-  </si>
-  <si>
-    <t>['Moffi']</t>
-  </si>
-  <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>OM</t>
-  </si>
-  <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>OL</t>
-  </si>
-  <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>Rennes</t>
-  </si>
-  <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>AS Monaco</t>
-  </si>
-  <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>Angers</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>PSG</t>
-  </si>
-  <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>Ajaccio</t>
-  </si>
-  <si>
-    <t>Troyes</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>Lille</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
     <t>['Onaiwu']</t>
   </si>
   <si>
-    <t>['Alioui']</t>
-  </si>
-  <si>
-    <t>['Savanier', 'Tchato']</t>
-  </si>
-  <si>
-    <t>['Neymar', 'Soler']</t>
-  </si>
-  <si>
-    <t>['Innocent', 'Kroupi']</t>
-  </si>
-  <si>
-    <t>['Balde', 'Chavalerin', 'Palaversa']</t>
-  </si>
-  <si>
-    <t>['Djiku', 'Bellegarde']</t>
-  </si>
-  <si>
-    <t>['Andre', 'Cabella', 'Burlet']</t>
-  </si>
-  <si>
-    <t>['Guessand', 'Castelletto']</t>
+    <t>['Sima', 'Camara', 'Corduan']</t>
+  </si>
+  <si>
+    <t>['Perrin', 'Sanson', 'Mothiba']</t>
+  </si>
+  <si>
+    <t>['Delort', 'Mollet']</t>
+  </si>
+  <si>
+    <t>['Flips', 'Cajuste']</t>
+  </si>
+  <si>
+    <t>['Majer', 'Kalimuendo']</t>
+  </si>
+  <si>
+    <t>['Cisse', 'Maurer']</t>
+  </si>
+  <si>
+    <t>['Danois', 'Merdji', 'Danois']</t>
   </si>
 </sst>
 </file>
@@ -552,19 +555,19 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -572,7 +575,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>3</v>
@@ -581,7 +584,7 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -590,10 +593,10 @@
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -601,36 +604,36 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -639,16 +642,16 @@
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H5" t="s">
         <v>40</v>
@@ -659,7 +662,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -668,16 +671,16 @@
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H6" t="s">
         <v>41</v>
@@ -688,7 +691,7 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -697,19 +700,19 @@
         <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H7" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -720,62 +723,62 @@
         <v>3</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E8">
         <v>2</v>
       </c>
       <c r="F8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I8">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
         <v>2</v>
       </c>
       <c r="G9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I9">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -784,19 +787,19 @@
         <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I10">
         <v>3</v>
@@ -804,28 +807,28 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I11">
         <v>3</v>

--- a/jour10.xlsx
+++ b/jour10.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+  <si>
+    <t>Score dom</t>
+  </si>
   <si>
     <t>Points dom</t>
   </si>
@@ -40,34 +43,76 @@
     <t>Points exté</t>
   </si>
   <si>
-    <t>['Aguilar', 'Pele', 'Jakobs']</t>
-  </si>
-  <si>
-    <t>['Talbi', 'Le_Goff']</t>
-  </si>
-  <si>
-    <t>['Lopez']</t>
-  </si>
-  <si>
-    <t>['Ruiz', 'Neymar', 'Verrati']</t>
-  </si>
-  <si>
-    <t>['Khazri', 'Khazri', 'Maouassa']</t>
-  </si>
-  <si>
-    <t>['David', 'Burlet']</t>
-  </si>
-  <si>
-    <t>['Kabore', 'Rongier']</t>
-  </si>
-  <si>
-    <t>['Alphonse', "N'Diaye"]</t>
-  </si>
-  <si>
-    <t>['Gusto']</t>
-  </si>
-  <si>
-    <t>['Mounie']</t>
+    <t>Score exte</t>
+  </si>
+  <si>
+    <t>['Le_Douaron', 'Magnetti', 'Del_Castillo', 'Elis']</t>
+  </si>
+  <si>
+    <t>['David', 'Cabella', 'Fonte', 'Ribeiro']</t>
+  </si>
+  <si>
+    <t>['Danois', 'Dembele', 'Dugimont']</t>
+  </si>
+  <si>
+    <t>['Zeneli', 'Ito', 'Flips']</t>
+  </si>
+  <si>
+    <t>['Corduan', 'Doumbia']</t>
+  </si>
+  <si>
+    <t>['Tolisso', 'Bercola']</t>
+  </si>
+  <si>
+    <t>['Kipembe']</t>
+  </si>
+  <si>
+    <t>['Silla']</t>
+  </si>
+  <si>
+    <t>['Brahimi']</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>Auxerre</t>
+  </si>
+  <si>
+    <t>Reims</t>
+  </si>
+  <si>
+    <t>Angers</t>
+  </si>
+  <si>
+    <t>OL</t>
+  </si>
+  <si>
+    <t>PSG</t>
+  </si>
+  <si>
+    <t>Ajaccio</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>Rennes</t>
   </si>
   <si>
     <t>AS Monaco</t>
@@ -76,85 +121,49 @@
     <t>Lorient</t>
   </si>
   <si>
+    <t>Clermont</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>OM</t>
+  </si>
+  <si>
     <t>Troyes</t>
   </si>
   <si>
-    <t>PSG</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>Lille</t>
-  </si>
-  <si>
-    <t>OM</t>
-  </si>
-  <si>
-    <t>Ajaccio</t>
-  </si>
-  <si>
-    <t>OL</t>
-  </si>
-  <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>Angers</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>Rennes</t>
-  </si>
-  <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>['Onaiwu']</t>
-  </si>
-  <si>
-    <t>['Sima', 'Camara', 'Corduan']</t>
-  </si>
-  <si>
-    <t>['Perrin', 'Sanson', 'Mothiba']</t>
-  </si>
-  <si>
-    <t>['Delort', 'Mollet']</t>
-  </si>
-  <si>
-    <t>['Flips', 'Cajuste']</t>
-  </si>
-  <si>
-    <t>['Majer', 'Kalimuendo']</t>
-  </si>
-  <si>
-    <t>['Cisse', 'Maurer']</t>
-  </si>
-  <si>
-    <t>['Danois', 'Merdji', 'Danois']</t>
+    <t>['Spierings', 'Healey', 'Onaiwu']</t>
+  </si>
+  <si>
+    <t>['Lienard', 'Djiku', 'Djiku', 'Mothiba']</t>
+  </si>
+  <si>
+    <t>['Santamaria']</t>
+  </si>
+  <si>
+    <t>['Ben_Yedder']</t>
+  </si>
+  <si>
+    <t>['Le_Goff']</t>
+  </si>
+  <si>
+    <t>['Rajot', 'Versini', 'Boyer']</t>
+  </si>
+  <si>
+    <t>['Ganago', 'Coco', 'Delort']</t>
+  </si>
+  <si>
+    <t>['Savanier', 'Maouassa']</t>
+  </si>
+  <si>
+    <t>['Ounahi', 'Clauss', 'Ounahi', 'Payet']</t>
+  </si>
+  <si>
+    <t>['Odobert', 'Salmier']</t>
   </si>
 </sst>
 </file>
@@ -512,13 +521,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -543,295 +552,361 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2">
+        <v>4</v>
+      </c>
+      <c r="G2">
+        <v>3</v>
+      </c>
+      <c r="H2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2">
-        <v>3</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B3">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
       </c>
       <c r="F3">
+        <v>4</v>
+      </c>
+      <c r="G3">
+        <v>4</v>
+      </c>
+      <c r="H3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3">
         <v>1</v>
       </c>
-      <c r="G3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="K3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>8</v>
       </c>
       <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1">
+        <v>5</v>
+      </c>
+      <c r="B5">
         <v>10</v>
       </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4">
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5">
         <v>1</v>
       </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" t="s">
-        <v>38</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="1">
-        <v>6</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5">
-        <v>3</v>
-      </c>
-      <c r="F5">
-        <v>3</v>
-      </c>
-      <c r="G5" t="s">
-        <v>31</v>
-      </c>
       <c r="H5" t="s">
-        <v>40</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="I5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>7</v>
       </c>
       <c r="B6">
+        <v>17</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
         <v>1</v>
       </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>3</v>
-      </c>
-      <c r="G6" t="s">
-        <v>32</v>
-      </c>
       <c r="H6" t="s">
-        <v>41</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>34</v>
+      </c>
+      <c r="I6" t="s">
+        <v>44</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
       </c>
       <c r="F7">
         <v>2</v>
       </c>
-      <c r="G7" t="s">
-        <v>33</v>
+      <c r="G7">
+        <v>3</v>
       </c>
       <c r="H7" t="s">
-        <v>42</v>
-      </c>
-      <c r="I7">
+        <v>35</v>
+      </c>
+      <c r="I7" t="s">
+        <v>45</v>
+      </c>
+      <c r="J7">
+        <v>3</v>
+      </c>
+      <c r="K7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>14</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="1">
-        <v>3</v>
-      </c>
-      <c r="B8">
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="H8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8" t="s">
+        <v>46</v>
+      </c>
+      <c r="J8">
+        <v>3</v>
+      </c>
+      <c r="K8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9">
         <v>1</v>
       </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8">
+      <c r="G9">
         <v>2</v>
       </c>
-      <c r="F8">
+      <c r="H9" t="s">
+        <v>37</v>
+      </c>
+      <c r="I9" t="s">
+        <v>47</v>
+      </c>
+      <c r="J9">
+        <v>3</v>
+      </c>
+      <c r="K9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1">
         <v>2</v>
       </c>
-      <c r="G8" t="s">
-        <v>34</v>
-      </c>
-      <c r="H8" t="s">
-        <v>43</v>
-      </c>
-      <c r="I8">
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="1">
+      <c r="G10">
         <v>4</v>
       </c>
-      <c r="B9">
+      <c r="H10" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" t="s">
+        <v>48</v>
+      </c>
+      <c r="J10">
+        <v>3</v>
+      </c>
+      <c r="K10">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1">
         <v>1</v>
       </c>
-      <c r="C9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9">
+      <c r="B11">
+        <v>7</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
         <v>2</v>
       </c>
-      <c r="F9">
-        <v>2</v>
-      </c>
-      <c r="G9" t="s">
-        <v>35</v>
-      </c>
-      <c r="H9" t="s">
-        <v>44</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="1">
-        <v>0</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>2</v>
-      </c>
-      <c r="G10" t="s">
-        <v>36</v>
-      </c>
-      <c r="H10" t="s">
-        <v>45</v>
-      </c>
-      <c r="I10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>3</v>
-      </c>
-      <c r="G11" t="s">
-        <v>37</v>
-      </c>
       <c r="H11" t="s">
-        <v>46</v>
-      </c>
-      <c r="I11">
-        <v>3</v>
+        <v>39</v>
+      </c>
+      <c r="I11" t="s">
+        <v>49</v>
+      </c>
+      <c r="J11">
+        <v>3</v>
+      </c>
+      <c r="K11">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/jour10.xlsx
+++ b/jour10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
   <si>
     <t>Score dom</t>
   </si>
@@ -46,124 +46,121 @@
     <t>Score exte</t>
   </si>
   <si>
-    <t>['Le_Douaron', 'Magnetti', 'Del_Castillo', 'Elis']</t>
-  </si>
-  <si>
-    <t>['David', 'Cabella', 'Fonte', 'Ribeiro']</t>
-  </si>
-  <si>
-    <t>['Danois', 'Dembele', 'Dugimont']</t>
-  </si>
-  <si>
-    <t>['Zeneli', 'Ito', 'Flips']</t>
-  </si>
-  <si>
-    <t>['Corduan', 'Doumbia']</t>
-  </si>
-  <si>
-    <t>['Tolisso', 'Bercola']</t>
-  </si>
-  <si>
-    <t>['Kipembe']</t>
-  </si>
-  <si>
-    <t>['Silla']</t>
-  </si>
-  <si>
-    <t>['Brahimi']</t>
+    <t>['Ito', 'Balogin', 'Flips', 'Serhuis']</t>
+  </si>
+  <si>
+    <t>['Mendy', 'Bamba', 'Alioui']</t>
+  </si>
+  <si>
+    <t>['Mavididi', 'Nordin']</t>
+  </si>
+  <si>
+    <t>['Merdji', 'Bain']</t>
+  </si>
+  <si>
+    <t>['Michelin', 'Roure']</t>
+  </si>
+  <si>
+    <t>['Medina', 'Sylla']</t>
+  </si>
+  <si>
+    <t>['Odobert']</t>
+  </si>
+  <si>
+    <t>['Kroupi']</t>
   </si>
   <si>
     <t>[]</t>
   </si>
   <si>
+    <t>Reims</t>
+  </si>
+  <si>
+    <t>Angers</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>Auxerre</t>
+  </si>
+  <si>
+    <t>Ajaccio</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>Troyes</t>
+  </si>
+  <si>
+    <t>Lorient</t>
+  </si>
+  <si>
+    <t>OM</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
     <t>Brest</t>
   </si>
   <si>
-    <t>Lille</t>
-  </si>
-  <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>Angers</t>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>AS Monaco</t>
+  </si>
+  <si>
+    <t>PSG</t>
   </si>
   <si>
     <t>OL</t>
   </si>
   <si>
-    <t>PSG</t>
-  </si>
-  <si>
-    <t>Ajaccio</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>Lens</t>
+    <t>Nantes</t>
   </si>
   <si>
     <t>Toulouse</t>
   </si>
   <si>
+    <t>Clermont</t>
+  </si>
+  <si>
     <t>Strasbourg</t>
   </si>
   <si>
-    <t>Rennes</t>
-  </si>
-  <si>
-    <t>AS Monaco</t>
-  </si>
-  <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>OM</t>
-  </si>
-  <si>
-    <t>Troyes</t>
-  </si>
-  <si>
-    <t>['Spierings', 'Healey', 'Onaiwu']</t>
-  </si>
-  <si>
-    <t>['Lienard', 'Djiku', 'Djiku', 'Mothiba']</t>
-  </si>
-  <si>
-    <t>['Santamaria']</t>
-  </si>
-  <si>
-    <t>['Ben_Yedder']</t>
-  </si>
-  <si>
-    <t>['Le_Goff']</t>
-  </si>
-  <si>
-    <t>['Rajot', 'Versini', 'Boyer']</t>
-  </si>
-  <si>
-    <t>['Ganago', 'Coco', 'Delort']</t>
-  </si>
-  <si>
-    <t>['Savanier', 'Maouassa']</t>
-  </si>
-  <si>
-    <t>['Ounahi', 'Clauss', 'Ounahi', 'Payet']</t>
-  </si>
-  <si>
-    <t>['Odobert', 'Salmier']</t>
+    <t>['Andre', 'Martin', 'Fonte']</t>
+  </si>
+  <si>
+    <t>['Elis']</t>
+  </si>
+  <si>
+    <t>['Beka', 'Pepe', 'Beka']</t>
+  </si>
+  <si>
+    <t>['Sibide', 'Maripan']</t>
+  </si>
+  <si>
+    <t>['Mbappe', 'Ruiz', 'Kipembe', 'Mendes']</t>
+  </si>
+  <si>
+    <t>['Aouar', 'Bercola']</t>
+  </si>
+  <si>
+    <t>['Guessand']</t>
+  </si>
+  <si>
+    <t>['Spierings', 'Healey', 'Healey']</t>
+  </si>
+  <si>
+    <t>['Cisse', 'Gastien']</t>
+  </si>
+  <si>
+    <t>['Le_Marchand', 'H.Diallo']</t>
   </si>
 </sst>
 </file>
@@ -561,10 +558,10 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C2">
         <v>3</v>
@@ -573,7 +570,7 @@
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F2">
         <v>4</v>
@@ -582,118 +579,118 @@
         <v>3</v>
       </c>
       <c r="H2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K4">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B5">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5">
         <v>17</v>
@@ -701,37 +698,37 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D6" t="s">
         <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F6">
         <v>2</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K6">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -739,66 +736,66 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="s">
         <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F7">
         <v>2</v>
       </c>
       <c r="G7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K7">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="s">
         <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K8">
         <v>14</v>
@@ -809,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="B9">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -818,33 +815,33 @@
         <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J9">
         <v>3</v>
       </c>
       <c r="K9">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B10">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -853,42 +850,42 @@
         <v>18</v>
       </c>
       <c r="E10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J10">
         <v>3</v>
       </c>
       <c r="K10">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -897,16 +894,16 @@
         <v>2</v>
       </c>
       <c r="H11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J11">
         <v>3</v>
       </c>
       <c r="K11">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/jour10.xlsx
+++ b/jour10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="48">
   <si>
     <t>Score dom</t>
   </si>
@@ -46,121 +46,118 @@
     <t>Score exte</t>
   </si>
   <si>
-    <t>['Ito', 'Balogin', 'Flips', 'Serhuis']</t>
-  </si>
-  <si>
-    <t>['Mendy', 'Bamba', 'Alioui']</t>
-  </si>
-  <si>
-    <t>['Mavididi', 'Nordin']</t>
-  </si>
-  <si>
-    <t>['Merdji', 'Bain']</t>
-  </si>
-  <si>
-    <t>['Michelin', 'Roure']</t>
-  </si>
-  <si>
-    <t>['Medina', 'Sylla']</t>
-  </si>
-  <si>
-    <t>['Odobert']</t>
-  </si>
-  <si>
-    <t>['Kroupi']</t>
+    <t>['Le_Fee', 'Talbi', 'Laporte', 'Le_Fee']</t>
+  </si>
+  <si>
+    <t>['Lebas', 'Diallo', 'Gonzalez']</t>
+  </si>
+  <si>
+    <t>['Dallinga', 'Onaiwu', 'Healey']</t>
+  </si>
+  <si>
+    <t>['Bain', 'Dugimont', 'Autret']</t>
+  </si>
+  <si>
+    <t>['Bercola', 'Bercola']</t>
+  </si>
+  <si>
+    <t>['Del_Castillo', 'Brassier']</t>
+  </si>
+  <si>
+    <t>['Blas', 'Blas']</t>
+  </si>
+  <si>
+    <t>['Nordin']</t>
   </si>
   <si>
     <t>[]</t>
   </si>
   <si>
+    <t>Lorient</t>
+  </si>
+  <si>
+    <t>Ajaccio</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>Auxerre</t>
+  </si>
+  <si>
+    <t>OL</t>
+  </si>
+  <si>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>Clermont</t>
+  </si>
+  <si>
+    <t>Troyes</t>
+  </si>
+  <si>
+    <t>OM</t>
+  </si>
+  <si>
+    <t>AS Monaco</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
     <t>Reims</t>
   </si>
   <si>
+    <t>Lens</t>
+  </si>
+  <si>
     <t>Angers</t>
   </si>
   <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
-    <t>Ajaccio</t>
-  </si>
-  <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>Troyes</t>
-  </si>
-  <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>OM</t>
-  </si>
-  <si>
-    <t>Rennes</t>
-  </si>
-  <si>
-    <t>Lille</t>
-  </si>
-  <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>AS Monaco</t>
-  </si>
-  <si>
     <t>PSG</t>
   </si>
   <si>
-    <t>OL</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>['Andre', 'Martin', 'Fonte']</t>
-  </si>
-  <si>
-    <t>['Elis']</t>
-  </si>
-  <si>
-    <t>['Beka', 'Pepe', 'Beka']</t>
-  </si>
-  <si>
-    <t>['Sibide', 'Maripan']</t>
-  </si>
-  <si>
-    <t>['Mbappe', 'Ruiz', 'Kipembe', 'Mendes']</t>
-  </si>
-  <si>
-    <t>['Aouar', 'Bercola']</t>
-  </si>
-  <si>
-    <t>['Guessand']</t>
-  </si>
-  <si>
-    <t>['Spierings', 'Healey', 'Healey']</t>
-  </si>
-  <si>
-    <t>['Cisse', 'Gastien']</t>
-  </si>
-  <si>
-    <t>['Le_Marchand', 'H.Diallo']</t>
+    <t>['Maurer', 'Rajot']</t>
+  </si>
+  <si>
+    <t>['Balde', 'Ripart', 'Conte']</t>
+  </si>
+  <si>
+    <t>['Ounahi', 'Lopez']</t>
+  </si>
+  <si>
+    <t>['Pele', 'Pele', 'Sibide']</t>
+  </si>
+  <si>
+    <t>['Burlet', 'Andre']</t>
+  </si>
+  <si>
+    <t>['Pepe', 'Pepe']</t>
+  </si>
+  <si>
+    <t>['Zeneli', 'Moalida']</t>
+  </si>
+  <si>
+    <t>['Guillaume', 'Mendy']</t>
+  </si>
+  <si>
+    <t>['Mendes']</t>
   </si>
 </sst>
 </file>
@@ -558,10 +555,10 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C2">
         <v>3</v>
@@ -576,7 +573,7 @@
         <v>4</v>
       </c>
       <c r="G2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H2" t="s">
         <v>29</v>
@@ -593,13 +590,13 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B3">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
@@ -611,7 +608,7 @@
         <v>3</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H3" t="s">
         <v>30</v>
@@ -620,21 +617,21 @@
         <v>40</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
@@ -643,10 +640,10 @@
         <v>21</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H4" t="s">
         <v>31</v>
@@ -655,18 +652,18 @@
         <v>41</v>
       </c>
       <c r="J4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -678,10 +675,10 @@
         <v>22</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H5" t="s">
         <v>32</v>
@@ -693,18 +690,18 @@
         <v>1</v>
       </c>
       <c r="K5">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="s">
         <v>14</v>
@@ -716,7 +713,7 @@
         <v>2</v>
       </c>
       <c r="G6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H6" t="s">
         <v>33</v>
@@ -725,18 +722,18 @@
         <v>43</v>
       </c>
       <c r="J6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K6">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B7">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -763,15 +760,15 @@
         <v>1</v>
       </c>
       <c r="K7">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -783,10 +780,10 @@
         <v>25</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H8" t="s">
         <v>35</v>
@@ -798,18 +795,18 @@
         <v>1</v>
       </c>
       <c r="K8">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B9">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D9" t="s">
         <v>17</v>
@@ -821,27 +818,27 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H9" t="s">
         <v>36</v>
       </c>
       <c r="I9" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="J9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B10">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -862,21 +859,21 @@
         <v>37</v>
       </c>
       <c r="I10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J10">
         <v>3</v>
       </c>
       <c r="K10">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B11">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -891,19 +888,19 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H11" t="s">
         <v>38</v>
       </c>
       <c r="I11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J11">
         <v>3</v>
       </c>
       <c r="K11">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
